--- a/Assets/DevelopAssets/Excels/LevelConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/LevelConfig.xlsx
@@ -4,12 +4,12 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827" activeTab="2"/>
+    <workbookView windowWidth="26083" windowHeight="10827" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Wave" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="EnemyIncrease" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>id</t>
   </si>
@@ -46,18 +46,21 @@
     <t>关卡id</t>
   </si>
   <si>
-    <t>配置信息: 1-4:levelwaveconfigid-增幅id,</t>
-  </si>
-  <si>
-    <t>count</t>
+    <t>配置信息: 1:levelwaveconfigid-增幅id,</t>
+  </si>
+  <si>
+    <t>1:1-1,5:2-1,6:1-1,10:3-1</t>
+  </si>
+  <si>
+    <t>enemyId</t>
+  </si>
+  <si>
+    <t>enemyCount</t>
   </si>
   <si>
     <t>timeToNext</t>
   </si>
   <si>
-    <t>enemyId</t>
-  </si>
-  <si>
     <t>isElite</t>
   </si>
   <si>
@@ -70,19 +73,34 @@
     <t>波次id</t>
   </si>
   <si>
+    <t>怪物id</t>
+  </si>
+  <si>
     <t>怪物数量</t>
   </si>
   <si>
     <t>时长s</t>
   </si>
   <si>
-    <t>怪物id</t>
-  </si>
-  <si>
     <t>精英波次</t>
   </si>
   <si>
     <t>是boss波次</t>
+  </si>
+  <si>
+    <t>attackIncrease</t>
+  </si>
+  <si>
+    <t>defenseIncrease</t>
+  </si>
+  <si>
+    <t>增幅id</t>
+  </si>
+  <si>
+    <t>攻击力增幅</t>
+  </si>
+  <si>
+    <t>防御力增幅</t>
   </si>
 </sst>
 </file>
@@ -1058,9 +1076,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" customHeight="1" spans="1:1">
+    <row r="4" customHeight="1" spans="1:2">
       <c r="A4" s="1">
         <v>1</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:1">
@@ -1095,30 +1116,35 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="5" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="10.2201834862385" customWidth="1"/>
+    <col min="3" max="3" width="15.954128440367" customWidth="1"/>
+    <col min="4" max="4" width="15.4495412844037" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -1135,30 +1161,30 @@
         <v>2</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1166,13 +1192,13 @@
         <v>1</v>
       </c>
       <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>30</v>
-      </c>
-      <c r="D4" s="1">
-        <v>1</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1185,10 +1211,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="1">
+        <v>1</v>
+      </c>
+      <c r="D5" s="1">
         <v>30</v>
-      </c>
-      <c r="D5" s="1">
-        <v>1</v>
       </c>
       <c r="E5" s="1">
         <v>1</v>
@@ -1203,10 +1229,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="1">
+        <v>1</v>
+      </c>
+      <c r="D6" s="1">
         <v>30</v>
-      </c>
-      <c r="D6" s="1">
-        <v>1</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1">
@@ -1223,14 +1249,65 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9"/>
-  <sheetData/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="16.697247706422" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3211009174312" style="1" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1">
+        <v>1</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>

--- a/Assets/DevelopAssets/Excels/LevelConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/LevelConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26083" windowHeight="10827" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1042,13 +1042,13 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="14.4587155963303" style="1" customWidth="1"/>
-    <col min="2" max="2" width="49.348623853211" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.7981651376147" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.4220183486239" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.5779816513761" style="1" customWidth="1"/>
-    <col min="6" max="6" width="16.5688073394495" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.1192660550459" style="1" customWidth="1"/>
+    <col min="1" max="1" width="14.462962962963" style="1" customWidth="1"/>
+    <col min="2" max="2" width="49.3518518518519" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.7962962962963" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.4259259259259" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5740740740741" style="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5648148148148" style="1" customWidth="1"/>
+    <col min="7" max="7" width="16.1203703703704" style="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
@@ -1117,14 +1117,14 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="5" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="10.2201834862385" customWidth="1"/>
-    <col min="3" max="3" width="15.954128440367" customWidth="1"/>
-    <col min="4" max="4" width="15.4495412844037" customWidth="1"/>
+    <col min="2" max="2" width="10.2222222222222" customWidth="1"/>
+    <col min="3" max="3" width="15.9537037037037" customWidth="1"/>
+    <col min="4" max="4" width="15.4537037037037" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -1198,7 +1198,7 @@
         <v>5</v>
       </c>
       <c r="D4" s="1">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -1255,11 +1255,11 @@
       <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.9" outlineLevelRow="3" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="3" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="9" style="1"/>
-    <col min="2" max="2" width="16.697247706422" style="1" customWidth="1"/>
-    <col min="3" max="3" width="18.3211009174312" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.6944444444444" style="1" customWidth="1"/>
+    <col min="3" max="3" width="18.3240740740741" style="1" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>

--- a/Assets/DevelopAssets/Excels/LevelConfig.xlsx
+++ b/Assets/DevelopAssets/Excels/LevelConfig.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180" activeTab="1"/>
+    <workbookView windowWidth="22188" windowHeight="9180"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Level" sheetId="1" r:id="rId1"/>
     <sheet name="Wave" sheetId="2" r:id="rId2"/>
     <sheet name="EnemyIncrease" sheetId="3" r:id="rId3"/>
   </sheets>
@@ -49,7 +49,7 @@
     <t>配置信息: 1:levelwaveconfigid-增幅id,</t>
   </si>
   <si>
-    <t>1:1-1,5:2-1,6:1-1,10:3-1</t>
+    <t>1:1-1,3:2-1,4:1-1,6:1-1</t>
   </si>
   <si>
     <t>enemyId</t>
@@ -1036,8 +1036,8 @@
   <sheetPr/>
   <dimension ref="A1:B8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="32" customHeight="1" outlineLevelRow="7" outlineLevelCol="1"/>
@@ -1116,7 +1116,7 @@
   <sheetPr/>
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
